--- a/FIZIKA/lab_3_23_UNDONE.xlsx
+++ b/FIZIKA/lab_3_23_UNDONE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\University\FIZIKA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F99896B-2563-4CC4-A973-43AA1A438A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C555E9-3D93-4A8D-A232-29197AB61003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Uz1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Uф</t>
+  </si>
+  <si>
+    <t>данные не оч</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,11 +392,29 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="C2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D2">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="C3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.70399999999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -441,6 +462,167 @@
       </c>
       <c r="H7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5.76</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5.76</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>5.76</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
+        <v>4.9509999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10">
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="H10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.9509999999999996</v>
+      </c>
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+      <c r="C11">
+        <v>4.95</v>
+      </c>
+      <c r="D11">
+        <v>0.6</v>
+      </c>
+      <c r="E11">
+        <v>4.9509999999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.6</v>
+      </c>
+      <c r="G11">
+        <v>4.9509999999999996</v>
+      </c>
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4.95</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="C12">
+        <v>4.92</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
+      </c>
+      <c r="E12">
+        <v>4.95</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+      <c r="G12">
+        <v>4.95</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4.92</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4.92</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4.92</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.92</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
